--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1242741.940332198</v>
+        <v>1204705.324150922</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779179</v>
+        <v>421727.3537779184</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481812</v>
+        <v>7956703.636481814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8772577.558993256</v>
+        <v>8772577.558993258</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G2" t="n">
+        <v>229.2635692820448</v>
+      </c>
+      <c r="H2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9059726800907</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>30.29145330828586</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>76.93044878667214</v>
+        <v>237.214847643272</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -946,13 +946,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.28916907668049</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>153.4237150659565</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
@@ -1043,7 +1043,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>168.1553481697935</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1186,7 +1186,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.24973044685182</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>70.21040951853384</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>85.42474164057188</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>138.5490369456453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>187.8627930913168</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S12" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2252571302023</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491782</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>138.391168687385</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>212.0386208165702</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3570519053243</v>
+        <v>107.003266366739</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
-        <v>154.4699294116341</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
         <v>224.6133508632724</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>110.574336931324</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>145.7130469821203</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>183.0138182213359</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068186</v>
       </c>
       <c r="H18" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>16.00151764134984</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>152.3216284100669</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.0183400717593</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -2180,7 +2180,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2222,7 +2222,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>104.7330008953557</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>179.8519149894984</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>177.6533237264606</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -2335,7 +2335,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>220.3218758892249</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -2383,7 +2383,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>165.7584790627467</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>53.66853612673689</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.60460671192102</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -2572,7 +2572,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>160.1933886396686</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>18.92789010879367</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2699,7 +2699,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383371</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>123.8960088696167</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>73.62581577188043</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.1466190479589</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.5149286494106</v>
@@ -2851,13 +2851,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>369.3559991521554</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.11577975570017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>170.7900579305582</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>169.2905004712661</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3116,7 +3116,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.431291934312991</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>27.11161092189256</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>126.5978304261149</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T36" t="n">
         <v>195.6974464808964</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>223.709992168086</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3520,7 +3520,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>199.9903937586099</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>204.429830308383</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3632,7 +3632,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>15.42020947531574</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>13.79251614144023</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>14.96996554829203</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.1306279437468</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>22.34031300679539</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>43.43543629068141</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>179.2889812939577</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>244.626539571303</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>205.4666352765466</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4045,7 +4045,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>64.66640004843251</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>41.2851927147987</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
       <c r="E2" t="n">
-        <v>576.7173427870935</v>
+        <v>745.907174392252</v>
       </c>
       <c r="F2" t="n">
-        <v>299.6629919369898</v>
+        <v>738.5396355230189</v>
       </c>
       <c r="G2" t="n">
-        <v>22.6086410868862</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H2" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y2" t="n">
-        <v>853.7716936371971</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630.4290419169108</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="C3" t="n">
-        <v>630.4290419169108</v>
+        <v>345.0842287958946</v>
       </c>
       <c r="D3" t="n">
-        <v>630.4290419169108</v>
+        <v>197.4959221548385</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>197.4959221548385</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>52.54013217145533</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>38.0960674107985</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>286.1736718527165</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>557.714641120903</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N3" t="n">
-        <v>829.2556103890895</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169108</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>630.4290419169108</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>630.4290419169108</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>630.4290419169108</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>630.4290419169108</v>
+        <v>890.6083307719874</v>
       </c>
       <c r="Y3" t="n">
-        <v>630.4290419169108</v>
+        <v>684.8798949956379</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4512,28 +4512,28 @@
         <v>122.096671017389</v>
       </c>
       <c r="R4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.6885175222841</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="C5" t="n">
-        <v>122.6885175222841</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="D5" t="n">
-        <v>122.6885175222841</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="E5" t="n">
-        <v>122.6885175222841</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="F5" t="n">
-        <v>115.3209786530509</v>
+        <v>484.5216925164083</v>
       </c>
       <c r="G5" t="n">
-        <v>100.3161651138278</v>
+        <v>469.5168789771852</v>
       </c>
       <c r="H5" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4582,37 +4582,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725949</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725949</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725949</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="X5" t="n">
-        <v>676.7972192224913</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="Y5" t="n">
-        <v>399.7428683723877</v>
+        <v>491.8892313856415</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="G6" t="n">
         <v>21.9427045873282</v>
@@ -4649,22 +4649,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>409.2622680873972</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377946</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O6" t="n">
-        <v>817.3865915151152</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>942.1617798048379</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>942.1617798048379</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>715.2353383228165</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>480.9840948484174</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W6" t="n">
-        <v>228.4696031817507</v>
+        <v>617.6942962177218</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>411.1673976232993</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>205.4389618469498</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I7" t="n">
         <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4755,22 +4755,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.2782741702153</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="C8" t="n">
-        <v>252.2782741702153</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="D8" t="n">
-        <v>252.2782741702153</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="E8" t="n">
-        <v>252.2782741702153</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>244.9107353009821</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4810,46 +4810,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>520.689884294858</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882474</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V8" t="n">
-        <v>266.6719412882474</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W8" t="n">
-        <v>266.6719412882474</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="X8" t="n">
-        <v>252.2782741702153</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2782741702153</v>
+        <v>491.8892313856415</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>503.251291735001</v>
+        <v>843.80506042609</v>
       </c>
       <c r="C9" t="n">
-        <v>503.251291735001</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="D9" t="n">
-        <v>503.251291735001</v>
+        <v>523.463638706851</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G9" t="n">
         <v>220.8983197263226</v>
@@ -4883,52 +4883,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.5779744919641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>416.6555789338821</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>416.6555789338821</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377946</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>817.3865915151152</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>801.0973387912991</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>574.1708973092776</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y9" t="n">
-        <v>503.251291735001</v>
+        <v>1010.84761154765</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
         <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1193.018191500087</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="C11" t="n">
-        <v>822.326175662771</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="D11" t="n">
-        <v>462.1193749005504</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="E11" t="n">
-        <v>462.1193749005504</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F11" t="n">
-        <v>50.71143199091319</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
         <v>50.71143199091319</v>
@@ -5041,19 +5041,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2331.338525392005</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2111.626476251186</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>1857.709143016483</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.571599545659</v>
+        <v>1525.857404104847</v>
       </c>
       <c r="W11" t="n">
-        <v>2345.811202483723</v>
+        <v>1171.786578851762</v>
       </c>
       <c r="X11" t="n">
-        <v>1971.203526593653</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.610524824728</v>
+        <v>797.1789029616918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
@@ -5123,49 +5123,49 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5208,43 +5208,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O13" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591334</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591334</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1168.59816349478</v>
+        <v>1215.693743088245</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9061476574645</v>
+        <v>1215.693743088245</v>
       </c>
       <c r="D14" t="n">
-        <v>437.699346895244</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E14" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F14" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
         <v>50.71143199091319</v>
@@ -5278,13 +5278,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724812</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5308,22 +5308,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W14" t="n">
-        <v>2321.391174478417</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="X14" t="n">
-        <v>1946.783498588347</v>
+        <v>1355.482802368432</v>
       </c>
       <c r="Y14" t="n">
-        <v>1556.190496819422</v>
+        <v>1355.482802368432</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>874.5523969142982</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C15" t="n">
-        <v>701.7992818361154</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D15" t="n">
-        <v>554.2109751950592</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E15" t="n">
-        <v>396.6014461979139</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F15" t="n">
-        <v>251.6456562145308</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G15" t="n">
-        <v>114.9213613606679</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T15" t="n">
-        <v>2167.498190136861</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.616017547696</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.364774073297</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W15" t="n">
-        <v>1453.85028240663</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X15" t="n">
-        <v>1247.323383812208</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y15" t="n">
-        <v>1041.594948035859</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C16" t="n">
         <v>50.71143199091319</v>
@@ -5445,7 +5445,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N16" t="n">
         <v>494.2381528619504</v>
@@ -5466,22 +5466,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>162.402681416493</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W16" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1997.793701835199</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="C17" t="n">
-        <v>1627.101685997883</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.894885235662</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="E17" t="n">
-        <v>879.9069703313312</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F17" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H17" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5521,7 +5521,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.571599545659</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V17" t="n">
-        <v>2388.386703604124</v>
+        <v>1885.517975412985</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.386703604124</v>
+        <v>1531.447150159899</v>
       </c>
       <c r="X17" t="n">
-        <v>2388.386703604124</v>
+        <v>1346.584707512085</v>
       </c>
       <c r="Y17" t="n">
-        <v>1997.793701835199</v>
+        <v>955.9917057431599</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G18" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L18" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O18" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P18" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C19" t="n">
         <v>50.71143199091319</v>
@@ -5682,7 +5682,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N19" t="n">
         <v>494.2381528619504</v>
@@ -5706,19 +5706,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V19" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W19" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X19" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.083323368227</v>
+        <v>808.3913627325599</v>
       </c>
       <c r="C20" t="n">
-        <v>379.3913075309111</v>
+        <v>437.699346895244</v>
       </c>
       <c r="D20" t="n">
-        <v>379.3913075309111</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
         <v>50.71143199091319</v>
@@ -5752,13 +5752,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5779,25 +5779,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T20" t="n">
-        <v>2455.123898426647</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U20" t="n">
-        <v>2201.206565191944</v>
+        <v>1918.428436737762</v>
       </c>
       <c r="V20" t="n">
-        <v>1869.354826280308</v>
+        <v>1586.576697826126</v>
       </c>
       <c r="W20" t="n">
-        <v>1515.284001027222</v>
+        <v>1586.576697826126</v>
       </c>
       <c r="X20" t="n">
-        <v>1140.676325137152</v>
+        <v>1586.576697826126</v>
       </c>
       <c r="Y20" t="n">
-        <v>750.083323368227</v>
+        <v>1195.983696057201</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C21" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D21" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E21" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F21" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G21" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U21" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.079790659903</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X21" t="n">
-        <v>1259.552892065481</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y21" t="n">
-        <v>1053.824456289131</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
         <v>50.71143199091319</v>
@@ -5937,25 +5937,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>497.8734951596401</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>497.8734951596401</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>208.9625784050725</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>208.9625784050725</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>208.9625784050725</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="X22" t="n">
-        <v>208.9625784050725</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1849.649035380938</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="C23" t="n">
-        <v>1849.649035380938</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D23" t="n">
-        <v>1489.442234618718</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E23" t="n">
-        <v>1102.454319714387</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F23" t="n">
-        <v>691.0463768047493</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G23" t="n">
-        <v>273.2587813739686</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
         <v>50.71143199091319</v>
@@ -5995,13 +5995,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6019,22 +6019,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U23" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.719860634023</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W23" t="n">
-        <v>1849.649035380938</v>
+        <v>1376.019653005417</v>
       </c>
       <c r="X23" t="n">
-        <v>1849.649035380938</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="Y23" t="n">
-        <v>1849.649035380938</v>
+        <v>1208.586845871329</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
         <v>50.71143199091319</v>
@@ -6068,25 +6068,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P24" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>531.0828798225687</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>516.3307518307292</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
         <v>50.71143199091319</v>
@@ -6177,22 +6177,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591335</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.57476077566</v>
+        <v>1240.113771093552</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.57476077566</v>
+        <v>1240.113771093552</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.57476077566</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E26" t="n">
-        <v>1208.586845871329</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F26" t="n">
-        <v>797.1789029616918</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
         <v>50.71143199091319</v>
@@ -6253,25 +6253,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2373.760095869226</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U26" t="n">
-        <v>2373.760095869226</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="V26" t="n">
-        <v>2373.760095869226</v>
+        <v>2024.433529670521</v>
       </c>
       <c r="W26" t="n">
-        <v>2373.760095869226</v>
+        <v>2005.314448752547</v>
       </c>
       <c r="X26" t="n">
-        <v>2373.760095869226</v>
+        <v>1630.706772862477</v>
       </c>
       <c r="Y26" t="n">
-        <v>1983.167094100301</v>
+        <v>1240.113771093552</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L27" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N27" t="n">
         <v>1786.275517555499</v>
@@ -6329,22 +6329,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
         <v>1352.403008847948</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E28" t="n">
         <v>50.71143199091319</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>554.39461245245</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>339.6223487454808</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>339.6223487454808</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V28" t="n">
-        <v>50.71143199091319</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>349.6813215744672</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.5242347723812</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="C29" t="n">
-        <v>209.5242347723812</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D29" t="n">
-        <v>209.5242347723812</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E29" t="n">
-        <v>209.5242347723812</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F29" t="n">
-        <v>209.5242347723812</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K29" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6490,25 +6490,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U29" t="n">
-        <v>1818.371334220299</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.519595308663</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="W29" t="n">
-        <v>1132.448770055577</v>
+        <v>1643.586839930716</v>
       </c>
       <c r="X29" t="n">
-        <v>757.8410941655072</v>
+        <v>1270.499972100256</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.2480923965821</v>
+        <v>879.9069703313312</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C31" t="n">
         <v>50.71143199091319</v>
@@ -6654,19 +6654,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W31" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.71143199091319</v>
+        <v>1586.385758925561</v>
       </c>
       <c r="C32" t="n">
-        <v>50.71143199091319</v>
+        <v>1215.693743088245</v>
       </c>
       <c r="D32" t="n">
-        <v>50.71143199091319</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E32" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G32" t="n">
         <v>50.71143199091319</v>
@@ -6700,19 +6700,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2363.056389514792</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2143.344340373974</v>
+        <v>2364.571094019128</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.427007139271</v>
+        <v>2364.571094019128</v>
       </c>
       <c r="V32" t="n">
-        <v>1557.575268227635</v>
+        <v>2364.571094019128</v>
       </c>
       <c r="W32" t="n">
-        <v>1203.50444297455</v>
+        <v>2364.571094019128</v>
       </c>
       <c r="X32" t="n">
-        <v>828.8967670844797</v>
+        <v>2364.571094019128</v>
       </c>
       <c r="Y32" t="n">
-        <v>438.3037653155546</v>
+        <v>1973.978092250203</v>
       </c>
     </row>
     <row r="33">
@@ -6764,16 +6764,16 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7284607271075</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7284607271075</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D34" t="n">
-        <v>58.21778748011823</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E34" t="n">
-        <v>58.21778748011823</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F34" t="n">
         <v>50.71143199091319</v>
@@ -6891,19 +6891,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6311794045659</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V34" t="n">
-        <v>390.6311794045659</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W34" t="n">
-        <v>390.6311794045659</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X34" t="n">
-        <v>390.6311794045659</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y34" t="n">
-        <v>390.6311794045659</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>808.9957141681189</v>
+        <v>1394.771481625677</v>
       </c>
       <c r="C35" t="n">
-        <v>438.3036983308031</v>
+        <v>1394.771481625677</v>
       </c>
       <c r="D35" t="n">
-        <v>78.09689756858245</v>
+        <v>1394.771481625677</v>
       </c>
       <c r="E35" t="n">
-        <v>78.09689756858245</v>
+        <v>1007.783566721346</v>
       </c>
       <c r="F35" t="n">
-        <v>78.09689756858245</v>
+        <v>596.3756238117089</v>
       </c>
       <c r="G35" t="n">
-        <v>50.71143199091319</v>
+        <v>178.5880283809282</v>
       </c>
       <c r="H35" t="n">
         <v>50.71143199091319</v>
@@ -6937,19 +6937,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370292</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M35" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U35" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V35" t="n">
-        <v>2315.859550404841</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W35" t="n">
-        <v>1961.788725151755</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X35" t="n">
-        <v>1587.181049261685</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="Y35" t="n">
-        <v>1196.58804749276</v>
+        <v>1394.771481625677</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
         <v>659.290600230799</v>
@@ -7016,52 +7016,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O36" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.689915167484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S36" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="37">
@@ -7128,19 +7128,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>679.5420961591335</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W37" t="n">
-        <v>453.5724071004607</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X37" t="n">
-        <v>453.5724071004607</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y37" t="n">
-        <v>232.6141506683716</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1829.112184743953</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C38" t="n">
-        <v>1829.112184743953</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D38" t="n">
-        <v>1468.905383981733</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E38" t="n">
-        <v>1081.917469077402</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>670.5095261677645</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>252.7219307369838</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
         <v>50.71143199091319</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T38" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U38" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V38" t="n">
-        <v>2203.719860634023</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="W38" t="n">
-        <v>2203.719860634023</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="X38" t="n">
-        <v>1829.112184743953</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y38" t="n">
-        <v>1829.112184743953</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
         <v>806.8789068718552</v>
@@ -7253,16 +7253,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
         <v>1620.913172155677</v>
@@ -7280,25 +7280,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="C40" t="n">
-        <v>360.7378579752</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="D40" t="n">
-        <v>360.7378579752</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="E40" t="n">
-        <v>212.2786416386352</v>
+        <v>663.9661269921479</v>
       </c>
       <c r="F40" t="n">
-        <v>64.64326647721646</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H40" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I40" t="n">
         <v>50.71143199091319</v>
@@ -7356,28 +7356,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>797.9061476574645</v>
+        <v>1208.139368821594</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9061476574645</v>
+        <v>837.4473529842782</v>
       </c>
       <c r="D41" t="n">
-        <v>437.699346895244</v>
+        <v>477.2405522220575</v>
       </c>
       <c r="E41" t="n">
-        <v>50.7114319909132</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F41" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G41" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I41" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370297</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724814</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535824</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7432,31 +7432,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2424.328541016623</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2204.616491875804</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U41" t="n">
-        <v>1950.699158641101</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V41" t="n">
-        <v>1950.699158641101</v>
+        <v>1949.802527399321</v>
       </c>
       <c r="W41" t="n">
-        <v>1950.699158641101</v>
+        <v>1595.731702146235</v>
       </c>
       <c r="X41" t="n">
-        <v>1576.091482751031</v>
+        <v>1595.731702146235</v>
       </c>
       <c r="Y41" t="n">
-        <v>1185.498480982106</v>
+        <v>1595.731702146235</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786802</v>
+        <v>842.907727096175</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004974</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594413</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E42" t="n">
-        <v>354.957489562296</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F42" t="n">
-        <v>210.0016995789129</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G42" t="n">
-        <v>73.27740472504996</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
-        <v>73.27740472504996</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2491.697421474264</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2333.527708683279</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501243</v>
+        <v>2135.853520318738</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912079</v>
+        <v>1908.971347729573</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1674.720104255174</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771013</v>
+        <v>1422.205612588507</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1215.678713994085</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002407</v>
+        <v>1009.950278217735</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
         <v>100.3216812543103</v>
@@ -7590,31 +7590,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>100.5639307332544</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>100.5639307332544</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V43" t="n">
-        <v>100.5639307332544</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5639307332544</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="X43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>879.9069703313312</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="C44" t="n">
-        <v>879.9069703313312</v>
+        <v>658.0157474716217</v>
       </c>
       <c r="D44" t="n">
-        <v>879.9069703313312</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="E44" t="n">
-        <v>879.9069703313312</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="F44" t="n">
-        <v>468.4990274216939</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="G44" t="n">
-        <v>50.7114319909132</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="H44" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I44" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
         <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724816</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535826</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7669,31 +7669,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q44" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T44" t="n">
-        <v>2328.029543710764</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U44" t="n">
-        <v>2328.029543710764</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V44" t="n">
-        <v>1996.177804799128</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W44" t="n">
-        <v>1642.106979546043</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X44" t="n">
-        <v>1267.499303655973</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1267.499303655973</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305378</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>573.2392624551994</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712846</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.57159954566</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.7114319909132</v>
+        <v>348.8574803993212</v>
       </c>
       <c r="C46" t="n">
-        <v>50.7114319909132</v>
+        <v>348.8574803993212</v>
       </c>
       <c r="D46" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E46" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K46" t="n">
         <v>100.3216812543103</v>
@@ -7827,31 +7827,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q46" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>268.2076775571585</v>
+        <v>637.8398812957005</v>
       </c>
       <c r="U46" t="n">
-        <v>268.2076775571585</v>
+        <v>637.8398812957005</v>
       </c>
       <c r="V46" t="n">
-        <v>50.7114319909132</v>
+        <v>637.8398812957005</v>
       </c>
       <c r="W46" t="n">
-        <v>50.7114319909132</v>
+        <v>348.8574803993212</v>
       </c>
       <c r="X46" t="n">
-        <v>50.7114319909132</v>
+        <v>348.8574803993212</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.7114319909132</v>
+        <v>348.8574803993212</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>143.2439403504903</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8297,25 +8297,25 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>269.7194869079141</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>262.2514961538889</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>60.72933541128936</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>102.8433479102859</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K15" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>102.8433479102859</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.44770712425047</v>
+        <v>102.8433479102859</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.5063687605953</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10190,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10682,10 +10682,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.8433479102859</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789571</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.8433479102864</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>89.00147381534933</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>157.2246747536534</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>38.94443070822268</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>162.6673239092378</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.92161561464283</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>33.93376427960223</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R13" t="n">
         <v>148.2796428708918</v>
@@ -23472,13 +23472,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>245.3252413040101</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>325.3930767845979</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.4914961839844</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>28.35378553858531</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>41.22751706926235</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>116.9085798791017</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -23676,7 +23676,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
@@ -23706,16 +23706,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>142.3620141356152</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,25 +23734,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
@@ -23788,16 +23788,16 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>182.8201745403991</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>187.8477809098335</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>91.92161561464243</v>
       </c>
       <c r="H18" t="n">
-        <v>81.68851577858739</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>49.63544615984797</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23946,10 +23946,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23986,7 +23986,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>201.5134110080607</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>99.05653149228883</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.3537855385855</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
@@ -24177,25 +24177,25 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>32.77262608040104</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>108.4392531609549</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,10 +24211,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>105.071200895373</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>157.2246747536534</v>
@@ -24259,10 +24259,10 @@
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>205.1031200684226</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>81.6885157785874</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24372,19 +24372,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>131.5544146978835</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
         <v>49.35397375491781</v>
@@ -24417,16 +24417,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>175.5182399560914</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
         <v>157.2246747536534</v>
@@ -24493,22 +24493,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>57.32154000974196</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>331.6022268917609</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -24648,22 +24648,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>24.38363400127519</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>212.4667611155351</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>227.5697909434362</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24691,16 +24691,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.505599979013937</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>49.63544615984797</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24894,10 +24894,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24967,22 +24967,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>6.70340972330979</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>48.22442817814442</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>138.7277294754915</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25131,13 +25131,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>386.4981085545803</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>198.795246358483</v>
       </c>
       <c r="I35" t="n">
         <v>157.2246747536534</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25368,19 +25368,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>62.38258471932951</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>125.402683025988</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
         <v>157.2246747536534</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>146.1002866921716</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>131.5544146978834</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>153.5385880478918</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>49.35397375491781</v>
@@ -25596,7 +25596,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
         <v>212.6245410698995</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>368.1480702069954</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
@@ -25678,25 +25678,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>67.36283971012122</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.22751706926172</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.899293949320331</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>46.65723171423442</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>142.5561610597322</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>80.7665372132949</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25918,13 +25918,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>12.04829337286398</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.92161561464238</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3311041893321</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.6610202933934</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>37.61506795635631</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681304.4942260201</v>
+        <v>681304.4942260204</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681304.4942260203</v>
+        <v>681304.4942260202</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681304.4942260202</v>
+        <v>681304.4942260203</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681304.4942260202</v>
+        <v>681304.4942260203</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681304.4942260202</v>
+        <v>681304.4942260204</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681304.4942260202</v>
+        <v>681304.4942260203</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681304.4942260203</v>
+        <v>681304.4942260202</v>
       </c>
     </row>
     <row r="16">
@@ -26322,31 +26322,31 @@
         <v>468003.6599535884</v>
       </c>
       <c r="E2" t="n">
-        <v>315500.1735876871</v>
+        <v>315500.173587687</v>
       </c>
       <c r="F2" t="n">
         <v>315500.173587687</v>
       </c>
       <c r="G2" t="n">
+        <v>315500.173587687</v>
+      </c>
+      <c r="H2" t="n">
+        <v>315500.1735876873</v>
+      </c>
+      <c r="I2" t="n">
         <v>315500.1735876871</v>
-      </c>
-      <c r="H2" t="n">
-        <v>315500.1735876871</v>
-      </c>
-      <c r="I2" t="n">
-        <v>315500.173587687</v>
       </c>
       <c r="J2" t="n">
         <v>315500.1735876871</v>
       </c>
       <c r="K2" t="n">
+        <v>315500.173587687</v>
+      </c>
+      <c r="L2" t="n">
         <v>315500.1735876872</v>
       </c>
-      <c r="L2" t="n">
-        <v>315500.1735876871</v>
-      </c>
       <c r="M2" t="n">
-        <v>315500.1735876871</v>
+        <v>315500.173587687</v>
       </c>
       <c r="N2" t="n">
         <v>315500.1735876871</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808627</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301983.9340152739</v>
+        <v>301983.934015274</v>
       </c>
       <c r="C4" t="n">
-        <v>301983.9340152739</v>
+        <v>301983.934015274</v>
       </c>
       <c r="D4" t="n">
-        <v>301983.9340152739</v>
+        <v>301983.934015274</v>
       </c>
       <c r="E4" t="n">
         <v>37068.93740564659</v>
@@ -26508,10 +26508,10 @@
         <v>45292.2611156748</v>
       </c>
       <c r="O5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="P5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23796.85808420525</v>
+        <v>23796.85808420512</v>
       </c>
       <c r="C6" t="n">
-        <v>115715.6704519451</v>
+        <v>115715.670451945</v>
       </c>
       <c r="D6" t="n">
-        <v>115715.6704519451</v>
+        <v>115715.670451945</v>
       </c>
       <c r="E6" t="n">
-        <v>-123050.4548203144</v>
+        <v>-129681.0411840494</v>
       </c>
       <c r="F6" t="n">
-        <v>233138.9750663656</v>
+        <v>226508.3887026308</v>
       </c>
       <c r="G6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026308</v>
       </c>
       <c r="H6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026311</v>
       </c>
       <c r="I6" t="n">
-        <v>233138.9750663656</v>
+        <v>226508.3887026308</v>
       </c>
       <c r="J6" t="n">
-        <v>161374.2625782794</v>
+        <v>154743.6762145446</v>
       </c>
       <c r="K6" t="n">
-        <v>233138.9750663658</v>
+        <v>226508.3887026308</v>
       </c>
       <c r="L6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026309</v>
       </c>
       <c r="M6" t="n">
-        <v>143522.9507678283</v>
+        <v>136892.3644040934</v>
       </c>
       <c r="N6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026309</v>
       </c>
       <c r="O6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026308</v>
       </c>
       <c r="P6" t="n">
-        <v>233138.9750663657</v>
+        <v>226508.3887026308</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="F3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="G3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="H3" t="n">
         <v>309.705174430311</v>
@@ -26828,10 +26828,10 @@
         <v>633.8928998864149</v>
       </c>
       <c r="O4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="P4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416026</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>185.5911961217861</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27441,7 +27441,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>109.6002166286337</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>30.12746102708313</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.7317568967565</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -27523,10 +27523,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0055665145194</v>
+        <v>64.62754946659254</v>
       </c>
       <c r="E4" t="n">
         <v>146.9746241731992</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>74.23872090402213</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>261.2134546014812</v>
+        <v>100.9290557448814</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27681,10 +27681,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -27709,7 +27709,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>119.7340411283618</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
@@ -27745,7 +27745,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>15.53789883968787</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>153.0325939955116</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27861,7 +27861,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>214.962687585494</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>356.6118686843176</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>161.6983215211213</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28000,7 +28000,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>118.2464097780141</v>
       </c>
     </row>
     <row r="10">
@@ -28031,7 +28031,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.460827879852118</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H11" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K11" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N11" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
         <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S11" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L12" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O12" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P12" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S12" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899087</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136568</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M13" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985009</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R13" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32004,10 +32004,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N14" t="n">
         <v>222.1566574333125</v>
@@ -32016,22 +32016,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S14" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I15" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32098,19 +32098,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S15" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H16" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
@@ -32159,37 +32159,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L16" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P16" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R16" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
@@ -32241,10 +32241,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N17" t="n">
         <v>222.1566574333125</v>
@@ -32253,22 +32253,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S17" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I18" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
@@ -32326,7 +32326,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32335,19 +32335,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S18" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
@@ -32396,37 +32396,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L19" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P19" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R19" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T19" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>8.848537350490295</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6613176266641</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>134.1933268726389</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O11" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P11" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M12" t="n">
         <v>514.5419032905515</v>
@@ -35506,10 +35506,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P17" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
@@ -35983,7 +35983,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36211,7 +36211,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,7 +36448,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
@@ -36457,7 +36457,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>524.7048705976756</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
         <v>395.2245205299612</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37402,10 +37402,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.39564078603548</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299612</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425419</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37870,7 +37870,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.39564078603594</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
-        <v>62.17602748516782</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
@@ -38107,7 +38107,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
